--- a/branches/dev2/StructureDefinition-questionnaire-s37.xlsx
+++ b/branches/dev2/StructureDefinition-questionnaire-s37.xlsx
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Settings </t>
+    <t xml:space="preserve">Extension : Item Settings </t>
   </si>
   <si>
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
